--- a/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,49</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,67; -2,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,1; -2,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,52; -5,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,99; 2,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,54; -5,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; -1,67</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,15%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 176,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 19,01</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,63; -1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,05; -0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,76; -5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; -5,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,41; -4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,92; -4,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,55%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -69,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -70,75</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -1,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -1,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; -4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,42; -4,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,95; -3,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; -3,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,64%</t>
         </is>
       </c>
     </row>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -48,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -54,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1212,178 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,75</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-9,14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-8,37</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-7,21</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-6,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; -3,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; -2,78</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; -6,49</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; -5,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; -5,41</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; -4,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-94,14%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-97,24%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-89,05%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-98,11%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-90,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -65,16</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -82,17</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-97,61; -69,51</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -88,82</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-97,15; -78,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_7_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,287 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-12,41</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,86</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-8,49</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.152824591167787</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.152824591167787</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.4061517446336</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.239336265142116</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-10.8629938047882</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-8.534220531613554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-21,67; -2,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,1; -2,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,52; -5,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 2,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-19,54; -5,19</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; -1,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.670179995123</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-22.09666725367572</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-24.52151751992097</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-20.33403449138541</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-19.54165321174542</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-16.63863689121004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-64,12%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-78,15%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-2.276287077920065</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.270250355457808</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-5.540209629601349</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.174443019296318</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-5.189902021084509</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-1.776370160052122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 176,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 19,01</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.6641331199826831</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7856232531267607</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,81</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-7,07</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,63; -1,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; -0,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; -5,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,72; -5,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; -4,52</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,92; -4,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>1.603051270417751</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.186233701719764</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-86,55%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-95,21%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-92,55%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.405958131444762</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.749036748925436</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.628359575605799</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.075934033372182</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-7.074020952218238</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-6.469575312786146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -69,02</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -70,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.630027251483314</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.959690554844223</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.76403051816309</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.55064575195103</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-10.40563719803711</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-9.898127435479227</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,63</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.865910095974078</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.6580865183383444</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.579302447638457</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-4.828516157056129</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-4.519590206021428</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-3.886272458064916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; -1,94</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; -1,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; -4,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,42; -4,13</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,95; -3,88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; -3,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.8509015830561435</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.9426251649727301</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.9145541632524353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-92,45%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-93,7%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-94,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-95,64%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
+      <c r="F14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -48,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -54,34</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -65,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -65,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>-0.6309893829990174</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>-0.6764227142129379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +896,320 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.442369096307321</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.442369096307321</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.677938128568007</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-7.771386145050119</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-6.239917850771846</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-6.288810640923584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.910163231395565</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.910163231395565</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-13.14777990362142</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-13.50754591644722</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-9.947323290180114</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-9.743948204041859</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-1.942039145147754</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-1.942039145147754</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-4.23374941798864</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-4.228226204010434</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-3.910700832767104</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-3.930795422388234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9303379634078508</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.9416610863456343</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9522152957381445</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.9596763655386131</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,04</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,75</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-9,14</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-8,37</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-7,21</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; -3,2</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; -2,78</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; -6,49</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-11,79; -5,52</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; -5,41</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-8,7; -4,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>-0.5255254674777542</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.5778267830968082</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.6930713764549576</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.6780603422948949</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-94,14%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-97,24%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-89,05%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-98,11%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-90,75%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.040510289614087</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-4.707450960498303</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-9.160681323600237</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-8.362232956732468</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-7.22590832628574</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-6.648031442016091</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -65,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -82,17</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-97,61; -69,51</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -88,82</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-97,15; -78,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.961230977381264</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.818609014687879</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.46998207063191</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-11.79529931233497</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-9.280877624248419</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-8.707526902222298</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.197091496023291</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.734391733879441</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-6.501379507819236</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-5.554223354298693</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-5.436509821440293</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-4.692352187765244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9339234898890993</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9750273362675407</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8900435935967186</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9830484641045686</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9044312221093581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9764090473945995</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.9708730937852271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>-0.6057324584833503</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8384542632793609</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.6920241219310583</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.9008748154627466</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.7776257869943574</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
